--- a/Santosha.xlsx
+++ b/Santosha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Sr.No</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Isha Colaba</t>
+  </si>
+  <si>
+    <t>Sujeet V</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Isha Pune</t>
   </si>
 </sst>
 </file>
@@ -207,12 +216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,14 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +275,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -281,18 +351,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,69 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,11 +664,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,15 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -721,17 +729,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,152 +764,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -933,9 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -1271,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1371,8 +1370,8 @@
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" ht="16.35" spans="1:9">
       <c r="A4" s="4">
@@ -1393,9 +1392,9 @@
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="16.35" spans="1:9">
       <c r="A5" s="4">
@@ -1419,8 +1418,8 @@
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" ht="16.35" spans="1:9">
       <c r="A6" s="4">
@@ -1444,8 +1443,8 @@
       <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" ht="16.35" spans="1:9">
       <c r="A7" s="4">
@@ -1469,8 +1468,8 @@
       <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" ht="16.35" spans="1:9">
       <c r="A8" s="4">
@@ -1491,9 +1490,9 @@
       <c r="F8" s="9">
         <v>9730459489</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" ht="16.35" spans="1:9">
       <c r="A9" s="4">
@@ -1511,10 +1510,10 @@
       <c r="E9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" ht="16.35" spans="1:9">
       <c r="A10" s="4">
@@ -1590,13 +1589,13 @@
       <c r="E12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" ht="16.35" spans="1:9">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1611,13 +1610,13 @@
       <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" ht="16.35" spans="1:9">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1632,13 +1631,13 @@
       <c r="E14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" ht="16.35" spans="1:9">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1656,13 +1655,42 @@
       <c r="F15" s="9">
         <v>9853085309</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="16.35" spans="1:9">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9">
+        <v>9820450091</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="9">
+        <v>9765485309</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>44</v>
       </c>
     </row>
